--- a/RNASeq_DE_resistant_sensitive/files/PDOnameProperSample_sWGS_RNAseq_3bias.xlsx
+++ b/RNASeq_DE_resistant_sensitive/files/PDOnameProperSample_sWGS_RNAseq_3bias.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vias01\OneDrive - Cancer Research UK, Cambridge Institute\Documents\organoids\genomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morril01/Documents/PhD/other_repos/Vias_Brenton/RNASeq_DE_resistant_sensitive/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E27CE92A996A0722F1ED47A7212F855DAA0BAD04" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1411CF-4214-8F48-A97C-4FF685F80C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="460" windowWidth="18700" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -183,128 +174,203 @@
     <t>JBLAB-19906</t>
   </si>
   <si>
+    <t>JBLAB-19848</t>
+  </si>
+  <si>
+    <t>JBLAB-19942</t>
+  </si>
+  <si>
+    <t>119127org</t>
+  </si>
+  <si>
+    <t>PDO5</t>
+  </si>
+  <si>
+    <t>JBLAB-19903</t>
+  </si>
+  <si>
+    <t>119148org</t>
+  </si>
+  <si>
+    <t>PDO6</t>
+  </si>
+  <si>
+    <t>JBLAB-19902</t>
+  </si>
+  <si>
+    <t>32077org</t>
+  </si>
+  <si>
+    <t>JBLAB-19847</t>
+  </si>
+  <si>
+    <t>PDO7</t>
+  </si>
+  <si>
+    <t>JBLAB-19941</t>
+  </si>
+  <si>
+    <t>54059org</t>
+  </si>
+  <si>
+    <t>JBLAB-19843</t>
+  </si>
+  <si>
+    <t>PDO8</t>
+  </si>
+  <si>
+    <t>JBLAB-19937</t>
+  </si>
+  <si>
+    <t>119058org</t>
+  </si>
+  <si>
+    <t>119058-org</t>
+  </si>
+  <si>
+    <t>PDO9</t>
+  </si>
+  <si>
+    <t>JBLAB-19921</t>
+  </si>
+  <si>
+    <t>fal01</t>
+  </si>
+  <si>
+    <t>FT1</t>
+  </si>
+  <si>
+    <t>JBLAB-19950</t>
+  </si>
+  <si>
+    <t>fal10</t>
+  </si>
+  <si>
+    <t>FT10</t>
+  </si>
+  <si>
+    <t>JBLAB-19953</t>
+  </si>
+  <si>
+    <t>fal07</t>
+  </si>
+  <si>
+    <t>FT7</t>
+  </si>
+  <si>
+    <t>JBLAB-19952</t>
+  </si>
+  <si>
+    <t>FT7-bis</t>
+  </si>
+  <si>
+    <t>JBLAB-19954</t>
+  </si>
+  <si>
+    <t>fal08</t>
+  </si>
+  <si>
+    <t>FT8</t>
+  </si>
+  <si>
+    <t>JBLAB-19955</t>
+  </si>
+  <si>
+    <t>fal09</t>
+  </si>
+  <si>
+    <t>FT9</t>
+  </si>
+  <si>
+    <t>JBLAB-19951</t>
+  </si>
+  <si>
+    <t>incorrect_PDO</t>
+  </si>
+  <si>
+    <t>xPDO1</t>
+  </si>
+  <si>
+    <t>xPDO10</t>
+  </si>
+  <si>
+    <t>xPDO11</t>
+  </si>
+  <si>
+    <t>xPDO12</t>
+  </si>
+  <si>
+    <t>xPDO13</t>
+  </si>
+  <si>
+    <t>xPDO14</t>
+  </si>
+  <si>
+    <t>xPDO15</t>
+  </si>
+  <si>
+    <t>xPDO16</t>
+  </si>
+  <si>
+    <t>xPDO17</t>
+  </si>
+  <si>
+    <t>xPDO18</t>
+  </si>
+  <si>
+    <t>xPDO2</t>
+  </si>
+  <si>
+    <t>xPDO3</t>
+  </si>
+  <si>
+    <t>xPDO4</t>
+  </si>
+  <si>
+    <t>xPDO5</t>
+  </si>
+  <si>
+    <t>xPDO6</t>
+  </si>
+  <si>
+    <t>xPDO7</t>
+  </si>
+  <si>
+    <t>xPDO8</t>
+  </si>
+  <si>
+    <t>xPDO9</t>
+  </si>
+  <si>
+    <t>xFT1</t>
+  </si>
+  <si>
+    <t>xFT10</t>
+  </si>
+  <si>
+    <t>xFT7</t>
+  </si>
+  <si>
+    <t>xFT7-bis</t>
+  </si>
+  <si>
+    <t>xFT8</t>
+  </si>
+  <si>
+    <t>xFT9</t>
+  </si>
+  <si>
+    <t>PDO4</t>
+  </si>
+  <si>
     <t>151773org</t>
-  </si>
-  <si>
-    <t>JBLAB-19848</t>
-  </si>
-  <si>
-    <t>PDO4</t>
-  </si>
-  <si>
-    <t>JBLAB-19942</t>
-  </si>
-  <si>
-    <t>119127org</t>
-  </si>
-  <si>
-    <t>PDO5</t>
-  </si>
-  <si>
-    <t>JBLAB-19903</t>
-  </si>
-  <si>
-    <t>119148org</t>
-  </si>
-  <si>
-    <t>PDO6</t>
-  </si>
-  <si>
-    <t>JBLAB-19902</t>
-  </si>
-  <si>
-    <t>32077org</t>
-  </si>
-  <si>
-    <t>JBLAB-19847</t>
-  </si>
-  <si>
-    <t>PDO7</t>
-  </si>
-  <si>
-    <t>JBLAB-19941</t>
-  </si>
-  <si>
-    <t>54059org</t>
-  </si>
-  <si>
-    <t>JBLAB-19843</t>
-  </si>
-  <si>
-    <t>PDO8</t>
-  </si>
-  <si>
-    <t>JBLAB-19937</t>
-  </si>
-  <si>
-    <t>119058org</t>
-  </si>
-  <si>
-    <t>119058-org</t>
-  </si>
-  <si>
-    <t>PDO9</t>
-  </si>
-  <si>
-    <t>JBLAB-19921</t>
-  </si>
-  <si>
-    <t>fal01</t>
-  </si>
-  <si>
-    <t>FT1</t>
-  </si>
-  <si>
-    <t>JBLAB-19950</t>
-  </si>
-  <si>
-    <t>fal10</t>
-  </si>
-  <si>
-    <t>FT10</t>
-  </si>
-  <si>
-    <t>JBLAB-19953</t>
-  </si>
-  <si>
-    <t>fal07</t>
-  </si>
-  <si>
-    <t>FT7</t>
-  </si>
-  <si>
-    <t>JBLAB-19952</t>
-  </si>
-  <si>
-    <t>FT7-bis</t>
-  </si>
-  <si>
-    <t>JBLAB-19954</t>
-  </si>
-  <si>
-    <t>fal08</t>
-  </si>
-  <si>
-    <t>FT8</t>
-  </si>
-  <si>
-    <t>JBLAB-19955</t>
-  </si>
-  <si>
-    <t>fal09</t>
-  </si>
-  <si>
-    <t>FT9</t>
-  </si>
-  <si>
-    <t>JBLAB-19951</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,15 +379,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,13 +442,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,441 +734,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>119127</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>118976</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54327</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>119127</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B13" s="3">
+        <v>119178</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>118976</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="D13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>54327</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B15" s="3">
+        <v>118947</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>119178</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15">
-        <v>118947</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="B16" s="3">
+        <v>119148</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="D16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16">
-        <v>119148</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="F16" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="C17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="7">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="3">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="F20" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="D21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E21">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E22">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="F23" s="3">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E23">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="D24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E24">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="D25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25">
+      <c r="F25" s="3">
         <v>0.91</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
-    <sortCondition ref="C2:C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="D2:D19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/RNASeq_DE_resistant_sensitive/files/PDOnameProperSample_sWGS_RNAseq_3bias.xlsx
+++ b/RNASeq_DE_resistant_sensitive/files/PDOnameProperSample_sWGS_RNAseq_3bias.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vias01\OneDrive - Cancer Research UK, Cambridge Institute\Documents\organoids\genomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morril01/Documents/PhD/other_repos/Vias_Brenton/RNASeq_DE_resistant_sensitive/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E27CE92A996A0722F1ED47A7212F855DAA0BAD04" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43550FA5-87F6-A344-B3BF-A3E8E30AC4B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="460" windowWidth="18700" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -183,128 +174,203 @@
     <t>JBLAB-19906</t>
   </si>
   <si>
+    <t>JBLAB-19848</t>
+  </si>
+  <si>
+    <t>JBLAB-19942</t>
+  </si>
+  <si>
+    <t>119127org</t>
+  </si>
+  <si>
+    <t>PDO5</t>
+  </si>
+  <si>
+    <t>JBLAB-19903</t>
+  </si>
+  <si>
+    <t>119148org</t>
+  </si>
+  <si>
+    <t>PDO6</t>
+  </si>
+  <si>
+    <t>JBLAB-19902</t>
+  </si>
+  <si>
+    <t>32077org</t>
+  </si>
+  <si>
+    <t>JBLAB-19847</t>
+  </si>
+  <si>
+    <t>PDO7</t>
+  </si>
+  <si>
+    <t>JBLAB-19941</t>
+  </si>
+  <si>
+    <t>54059org</t>
+  </si>
+  <si>
+    <t>JBLAB-19843</t>
+  </si>
+  <si>
+    <t>PDO8</t>
+  </si>
+  <si>
+    <t>JBLAB-19937</t>
+  </si>
+  <si>
+    <t>119058org</t>
+  </si>
+  <si>
+    <t>119058-org</t>
+  </si>
+  <si>
+    <t>PDO9</t>
+  </si>
+  <si>
+    <t>JBLAB-19921</t>
+  </si>
+  <si>
+    <t>fal01</t>
+  </si>
+  <si>
+    <t>FT1</t>
+  </si>
+  <si>
+    <t>JBLAB-19950</t>
+  </si>
+  <si>
+    <t>fal10</t>
+  </si>
+  <si>
+    <t>FT10</t>
+  </si>
+  <si>
+    <t>JBLAB-19953</t>
+  </si>
+  <si>
+    <t>fal07</t>
+  </si>
+  <si>
+    <t>FT7</t>
+  </si>
+  <si>
+    <t>JBLAB-19952</t>
+  </si>
+  <si>
+    <t>FT7-bis</t>
+  </si>
+  <si>
+    <t>JBLAB-19954</t>
+  </si>
+  <si>
+    <t>fal08</t>
+  </si>
+  <si>
+    <t>FT8</t>
+  </si>
+  <si>
+    <t>JBLAB-19955</t>
+  </si>
+  <si>
+    <t>fal09</t>
+  </si>
+  <si>
+    <t>FT9</t>
+  </si>
+  <si>
+    <t>JBLAB-19951</t>
+  </si>
+  <si>
+    <t>incorrect_PDO</t>
+  </si>
+  <si>
+    <t>xPDO1</t>
+  </si>
+  <si>
+    <t>xPDO10</t>
+  </si>
+  <si>
+    <t>xPDO11</t>
+  </si>
+  <si>
+    <t>xPDO12</t>
+  </si>
+  <si>
+    <t>xPDO13</t>
+  </si>
+  <si>
+    <t>xPDO14</t>
+  </si>
+  <si>
+    <t>xPDO15</t>
+  </si>
+  <si>
+    <t>xPDO16</t>
+  </si>
+  <si>
+    <t>xPDO17</t>
+  </si>
+  <si>
+    <t>xPDO18</t>
+  </si>
+  <si>
+    <t>xPDO2</t>
+  </si>
+  <si>
+    <t>xPDO3</t>
+  </si>
+  <si>
+    <t>xPDO4</t>
+  </si>
+  <si>
+    <t>xPDO5</t>
+  </si>
+  <si>
+    <t>xPDO6</t>
+  </si>
+  <si>
+    <t>xPDO7</t>
+  </si>
+  <si>
+    <t>xPDO8</t>
+  </si>
+  <si>
+    <t>xPDO9</t>
+  </si>
+  <si>
+    <t>xFT1</t>
+  </si>
+  <si>
+    <t>xFT10</t>
+  </si>
+  <si>
+    <t>xFT7</t>
+  </si>
+  <si>
+    <t>xFT7-bis</t>
+  </si>
+  <si>
+    <t>xFT8</t>
+  </si>
+  <si>
+    <t>xFT9</t>
+  </si>
+  <si>
+    <t>PDO4</t>
+  </si>
+  <si>
     <t>151773org</t>
-  </si>
-  <si>
-    <t>JBLAB-19848</t>
-  </si>
-  <si>
-    <t>PDO4</t>
-  </si>
-  <si>
-    <t>JBLAB-19942</t>
-  </si>
-  <si>
-    <t>119127org</t>
-  </si>
-  <si>
-    <t>PDO5</t>
-  </si>
-  <si>
-    <t>JBLAB-19903</t>
-  </si>
-  <si>
-    <t>119148org</t>
-  </si>
-  <si>
-    <t>PDO6</t>
-  </si>
-  <si>
-    <t>JBLAB-19902</t>
-  </si>
-  <si>
-    <t>32077org</t>
-  </si>
-  <si>
-    <t>JBLAB-19847</t>
-  </si>
-  <si>
-    <t>PDO7</t>
-  </si>
-  <si>
-    <t>JBLAB-19941</t>
-  </si>
-  <si>
-    <t>54059org</t>
-  </si>
-  <si>
-    <t>JBLAB-19843</t>
-  </si>
-  <si>
-    <t>PDO8</t>
-  </si>
-  <si>
-    <t>JBLAB-19937</t>
-  </si>
-  <si>
-    <t>119058org</t>
-  </si>
-  <si>
-    <t>119058-org</t>
-  </si>
-  <si>
-    <t>PDO9</t>
-  </si>
-  <si>
-    <t>JBLAB-19921</t>
-  </si>
-  <si>
-    <t>fal01</t>
-  </si>
-  <si>
-    <t>FT1</t>
-  </si>
-  <si>
-    <t>JBLAB-19950</t>
-  </si>
-  <si>
-    <t>fal10</t>
-  </si>
-  <si>
-    <t>FT10</t>
-  </si>
-  <si>
-    <t>JBLAB-19953</t>
-  </si>
-  <si>
-    <t>fal07</t>
-  </si>
-  <si>
-    <t>FT7</t>
-  </si>
-  <si>
-    <t>JBLAB-19952</t>
-  </si>
-  <si>
-    <t>FT7-bis</t>
-  </si>
-  <si>
-    <t>JBLAB-19954</t>
-  </si>
-  <si>
-    <t>fal08</t>
-  </si>
-  <si>
-    <t>FT8</t>
-  </si>
-  <si>
-    <t>JBLAB-19955</t>
-  </si>
-  <si>
-    <t>fal09</t>
-  </si>
-  <si>
-    <t>FT9</t>
-  </si>
-  <si>
-    <t>JBLAB-19951</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,15 +379,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,13 +442,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,441 +734,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A25" sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>119127</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>118976</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54327</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>119127</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B13" s="3">
+        <v>119178</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>118976</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="D13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>54327</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B15" s="3">
+        <v>118947</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13">
-        <v>119178</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15">
-        <v>118947</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="B16" s="3">
+        <v>119148</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="D16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16">
-        <v>119148</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="F16" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="C17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="7">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="3">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="4">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="F20" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="D21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E21">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E22">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+      <c r="F23" s="3">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E23">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="D24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E24">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="D25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25">
+      <c r="F25" s="3">
         <v>0.91</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
-    <sortCondition ref="C2:C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="D2:D19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
